--- a/infinite/Excel/Task_任务表.xlsx
+++ b/infinite/Excel/Task_任务表.xlsx
@@ -3186,7 +3186,7 @@
         <v>每周击败50只美杜莎（{0}/{1}）</v>
       </c>
       <c r="C70" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="4">
         <v>221</v>
@@ -3224,7 +3224,7 @@
         <v>每周击败150只美杜莎（{0}/{1}）</v>
       </c>
       <c r="C71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" s="4">
         <v>221</v>
@@ -3262,7 +3262,7 @@
         <v>每周击败300只美杜莎（{0}/{1}）</v>
       </c>
       <c r="C72" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="4">
         <v>221</v>
@@ -3300,7 +3300,7 @@
         <v>每周击败500只美杜莎（{0}/{1}）</v>
       </c>
       <c r="C73" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="4">
         <v>221</v>
@@ -3338,7 +3338,7 @@
         <v>每周击败1000只美杜莎（{0}/{1}）</v>
       </c>
       <c r="C74" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="4">
         <v>221</v>
@@ -3373,8 +3373,8 @@
       <c r="B75" s="1" t="str">
         <v>每周击败50只蜘蛛精（{0}/{1}）</v>
       </c>
-      <c r="C75" s="1">
-        <v>1</v>
+      <c r="C75" s="2">
+        <v>2</v>
       </c>
       <c r="D75" s="1">
         <v>231</v>
@@ -3411,8 +3411,8 @@
       <c r="B76" s="1" t="str">
         <v>每周击败150只蜘蛛精（{0}/{1}）</v>
       </c>
-      <c r="C76" s="1">
-        <v>1</v>
+      <c r="C76" s="2">
+        <v>2</v>
       </c>
       <c r="D76" s="1">
         <v>231</v>
@@ -3450,7 +3450,7 @@
         <v>每周击败300只蜘蛛精（{0}/{1}）</v>
       </c>
       <c r="C77" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="1">
         <v>231</v>
@@ -3488,7 +3488,7 @@
         <v>每周击败500只蜘蛛精（{0}/{1}）</v>
       </c>
       <c r="C78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" s="1">
         <v>231</v>
@@ -3526,7 +3526,7 @@
         <v>每周击败1000只蜘蛛精（{0}/{1}）</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="1">
         <v>231</v>
@@ -3562,7 +3562,7 @@
         <v>每周击败50只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="C80" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" s="4">
         <v>241</v>
@@ -3600,7 +3600,7 @@
         <v>每周击败150只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="C81" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="4">
         <v>241</v>
@@ -3638,7 +3638,7 @@
         <v>每周击败300只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="C82" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" s="4">
         <v>241</v>
@@ -3676,7 +3676,7 @@
         <v>每周击败500只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="C83" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="4">
         <v>241</v>
@@ -3714,7 +3714,7 @@
         <v>每周击败1000只炫彩蜘蛛（{0}/{1}）</v>
       </c>
       <c r="C84" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="4">
         <v>241</v>
@@ -3749,8 +3749,8 @@
       <c r="B85" s="1" t="str">
         <v>每周击败50只龙兽（{0}/{1}）</v>
       </c>
-      <c r="C85" s="1">
-        <v>1</v>
+      <c r="C85" s="2">
+        <v>2</v>
       </c>
       <c r="D85" s="1">
         <v>251</v>
@@ -3787,8 +3787,8 @@
       <c r="B86" s="1" t="str">
         <v>每周击败150只龙兽（{0}/{1}）</v>
       </c>
-      <c r="C86" s="1">
-        <v>1</v>
+      <c r="C86" s="2">
+        <v>2</v>
       </c>
       <c r="D86" s="1">
         <v>251</v>
@@ -3826,7 +3826,7 @@
         <v>每周击败300只龙兽（{0}/{1}）</v>
       </c>
       <c r="C87" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1">
         <v>251</v>
@@ -3864,7 +3864,7 @@
         <v>每周击败500只龙兽（{0}/{1}）</v>
       </c>
       <c r="C88" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1">
         <v>251</v>
@@ -3902,7 +3902,7 @@
         <v>每周击败1000只龙兽（{0}/{1}）</v>
       </c>
       <c r="C89" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" s="1">
         <v>251</v>
@@ -3938,7 +3938,7 @@
         <v>每周击败50只丧尸（{0}/{1}）</v>
       </c>
       <c r="C90" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" s="4">
         <v>261</v>
@@ -3976,7 +3976,7 @@
         <v>每周击败150只丧尸（{0}/{1}）</v>
       </c>
       <c r="C91" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" s="4">
         <v>261</v>
@@ -4014,7 +4014,7 @@
         <v>每周击败300只丧尸（{0}/{1}）</v>
       </c>
       <c r="C92" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="4">
         <v>261</v>
@@ -4052,7 +4052,7 @@
         <v>每周击败500只丧尸（{0}/{1}）</v>
       </c>
       <c r="C93" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" s="4">
         <v>261</v>
@@ -4090,7 +4090,7 @@
         <v>每周击败1000只丧尸（{0}/{1}）</v>
       </c>
       <c r="C94" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" s="4">
         <v>261</v>
@@ -4125,8 +4125,8 @@
       <c r="B95" s="1" t="str">
         <v>每周击败50只变异布偶（{0}/{1}）</v>
       </c>
-      <c r="C95" s="1">
-        <v>1</v>
+      <c r="C95" s="2">
+        <v>2</v>
       </c>
       <c r="D95" s="1">
         <v>271</v>
@@ -4163,8 +4163,8 @@
       <c r="B96" s="1" t="str">
         <v>每周击败150只变异布偶（{0}/{1}）</v>
       </c>
-      <c r="C96" s="1">
-        <v>1</v>
+      <c r="C96" s="2">
+        <v>2</v>
       </c>
       <c r="D96" s="1">
         <v>271</v>
@@ -4202,7 +4202,7 @@
         <v>每周击败300只变异布偶（{0}/{1}）</v>
       </c>
       <c r="C97" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" s="1">
         <v>271</v>
@@ -4240,7 +4240,7 @@
         <v>每周击败500只变异布偶（{0}/{1}）</v>
       </c>
       <c r="C98" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" s="1">
         <v>271</v>
@@ -4278,7 +4278,7 @@
         <v>每周击败1000只变异布偶（{0}/{1}）</v>
       </c>
       <c r="C99" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" s="1">
         <v>271</v>
@@ -4314,7 +4314,7 @@
         <v>每周击败50名玩家（{0}/{1}）</v>
       </c>
       <c r="C100" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="4">
         <v>281</v>
@@ -4352,7 +4352,7 @@
         <v>每周击败150名玩家（{0}/{1}）</v>
       </c>
       <c r="C101" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" s="4">
         <v>281</v>
@@ -4390,7 +4390,7 @@
         <v>每周击败300名玩家（{0}/{1}）</v>
       </c>
       <c r="C102" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" s="4">
         <v>281</v>
@@ -4428,7 +4428,7 @@
         <v>每周击败500名玩家（{0}/{1}）</v>
       </c>
       <c r="C103" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="4">
         <v>281</v>
@@ -4466,7 +4466,7 @@
         <v>每周击败1000名玩家（{0}/{1}）</v>
       </c>
       <c r="C104" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" s="4">
         <v>281</v>
@@ -4501,8 +4501,8 @@
       <c r="B105" s="1" t="str">
         <v>每周等级提升10级（{0}/{1}）</v>
       </c>
-      <c r="C105" s="1">
-        <v>1</v>
+      <c r="C105" s="2">
+        <v>2</v>
       </c>
       <c r="D105" s="1">
         <v>291</v>
@@ -4539,8 +4539,8 @@
       <c r="B106" s="1" t="str">
         <v>每周等级提升30级（{0}/{1}）</v>
       </c>
-      <c r="C106" s="1">
-        <v>1</v>
+      <c r="C106" s="2">
+        <v>2</v>
       </c>
       <c r="D106" s="1">
         <v>291</v>
@@ -4578,7 +4578,7 @@
         <v>每周等级提升60级（{0}/{1}）</v>
       </c>
       <c r="C107" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" s="1">
         <v>291</v>
@@ -4616,7 +4616,7 @@
         <v>每周等级提升100级（{0}/{1}）</v>
       </c>
       <c r="C108" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" s="1">
         <v>291</v>
@@ -4654,7 +4654,7 @@
         <v>每周等级提升200级（{0}/{1}）</v>
       </c>
       <c r="C109" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" s="1">
         <v>291</v>
@@ -4690,7 +4690,7 @@
         <v>每周捡到10个秘宝（{0}/{1}）</v>
       </c>
       <c r="C110" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" s="4">
         <v>301</v>
@@ -4728,7 +4728,7 @@
         <v>每周捡到30个秘宝（{0}/{1}）</v>
       </c>
       <c r="C111" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111" s="4">
         <v>301</v>
@@ -4766,7 +4766,7 @@
         <v>每周捡到60个秘宝（{0}/{1}）</v>
       </c>
       <c r="C112" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" s="4">
         <v>301</v>
@@ -4804,7 +4804,7 @@
         <v>每周捡到100个秘宝（{0}/{1}）</v>
       </c>
       <c r="C113" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" s="4">
         <v>301</v>
@@ -4842,7 +4842,7 @@
         <v>每周捡到200个秘宝（{0}/{1}）</v>
       </c>
       <c r="C114" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" s="4">
         <v>301</v>
@@ -4877,8 +4877,8 @@
       <c r="B115" s="1" t="str">
         <v>每周观看10次广告（{0}/{1}）</v>
       </c>
-      <c r="C115" s="1">
-        <v>1</v>
+      <c r="C115" s="2">
+        <v>2</v>
       </c>
       <c r="D115" s="1">
         <v>311</v>
@@ -4915,8 +4915,8 @@
       <c r="B116" s="1" t="str">
         <v>每周观看30次广告（{0}/{1}）</v>
       </c>
-      <c r="C116" s="1">
-        <v>1</v>
+      <c r="C116" s="2">
+        <v>2</v>
       </c>
       <c r="D116" s="1">
         <v>311</v>
@@ -4954,7 +4954,7 @@
         <v>每周观看60次广告（{0}/{1}）</v>
       </c>
       <c r="C117" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117" s="1">
         <v>311</v>
@@ -4992,7 +4992,7 @@
         <v>每周观看100次广告（{0}/{1}）</v>
       </c>
       <c r="C118" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" s="1">
         <v>311</v>
@@ -5030,7 +5030,7 @@
         <v>每周观看200次广告（{0}/{1}）</v>
       </c>
       <c r="C119" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119" s="1">
         <v>311</v>

--- a/infinite/Excel/Task_任务表.xlsx
+++ b/infinite/Excel/Task_任务表.xlsx
@@ -65,13 +65,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -80,6 +73,13 @@
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -575,89 +575,89 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="4" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="4" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="5" t="str">
+      <c r="C1" s="4" t="str">
         <v>int</v>
       </c>
-      <c r="D1" s="5" t="str">
+      <c r="D1" s="4" t="str">
         <v>int</v>
       </c>
-      <c r="E1" s="5" t="str">
+      <c r="E1" s="4" t="str">
         <v>int</v>
       </c>
-      <c r="F1" s="5" t="str">
+      <c r="F1" s="4" t="str">
         <v>int</v>
       </c>
-      <c r="G1" s="5" t="str">
+      <c r="G1" s="4" t="str">
         <v>int</v>
       </c>
-      <c r="H1" s="5" t="str">
+      <c r="H1" s="4" t="str">
         <v>int</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="6"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="4" t="str">
         <v>id</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="4" t="str">
         <v>Name</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="4" t="str">
         <v>TaskType</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <v>TaskItemType</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="4" t="str">
         <v>NextId</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <v>TragetNum</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="4" t="str">
         <v>Coin</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="4" t="str">
         <v>Exp</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="5"/>
     </row>
     <row customHeight="true" ht="308" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <v>任务id</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <v>任务名字</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="4" t="str">
         <v>任务类型
 1-每日任务
 2-每周任务</v>
@@ -689,87 +689,89 @@
 301-每日捡到秘宝
 311-每日看广告次数</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="4" t="str">
         <v>下一阶段的任务ID</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="4" t="str">
         <v>目标数</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="4" t="str">
         <v>获得金币</v>
       </c>
-      <c r="H3" s="5" t="str">
+      <c r="H3" s="4" t="str">
         <v>获得玩家经验</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="str">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="str">
         <v>每日登陆游戏（{0}/{1}）</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
         <v>100</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <v>100</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
       <c r="T5" s="8"/>
     </row>
     <row customHeight="true" ht="23" r="6">
@@ -785,9 +787,7 @@
       <c r="D6" s="2">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2">
         <v>8</v>
       </c>
@@ -798,8 +798,12 @@
         <v>800</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -821,11 +825,9 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2">
         <v>15</v>
       </c>
@@ -836,8 +838,12 @@
         <v>1500</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="2">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -859,11 +865,9 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2">
         <v>25</v>
       </c>
@@ -874,8 +878,12 @@
         <v>2500</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -897,11 +905,9 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2">
         <v>35</v>
       </c>
@@ -912,8 +918,12 @@
         <v>3555</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -934,12 +944,10 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7</v>
-      </c>
+      <c r="D10" s="2">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>50</v>
       </c>
@@ -950,8 +958,12 @@
         <v>5000</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -972,8 +984,8 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>11</v>
+      <c r="D11" s="2">
+        <v>16</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -986,7 +998,9 @@
         <v>6000</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>11</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -999,192 +1013,202 @@
       <c r="T11" s="3"/>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="6" t="str">
         <v>每日击败1只美杜莎（{0}/{1}）</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
         <v>21</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>500</v>
+      </c>
+      <c r="H12" s="6">
+        <v>500</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
+        <v>21</v>
+      </c>
+      <c r="K12" s="6">
         <v>9</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>500</v>
-      </c>
-      <c r="H12" s="4">
-        <v>500</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="6" t="str">
         <v>每日击败3只美杜莎（{0}/{1}）</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1500</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1500</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="6">
         <v>21</v>
       </c>
-      <c r="E13" s="4">
+      <c r="K13" s="6">
         <v>10</v>
       </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1500</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1500</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="6" t="str">
         <v>每日击败6只美杜莎（{0}/{1}）</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="4">
+        <v>3000</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>21</v>
       </c>
-      <c r="E14" s="5">
+      <c r="K14" s="4">
         <v>11</v>
       </c>
-      <c r="F14" s="5">
-        <v>6</v>
-      </c>
-      <c r="G14" s="5">
-        <v>3000</v>
-      </c>
-      <c r="H14" s="5">
-        <v>3000</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="6"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="6" t="str">
         <v>每日击败10只美杜莎（{0}/{1}）</v>
       </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
         <v>21</v>
       </c>
-      <c r="E15" s="5">
+      <c r="K15" s="4">
         <v>12</v>
       </c>
-      <c r="F15" s="5">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5">
-        <v>5000</v>
-      </c>
-      <c r="H15" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="6"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="6" t="str">
         <v>每日击败20只美杜莎（{0}/{1}）</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
         <v>21</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5">
-        <v>10000</v>
-      </c>
-      <c r="H16" s="5">
-        <v>10000</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="17">
       <c r="A17" s="2">
@@ -1199,9 +1223,7 @@
       <c r="D17" s="1">
         <v>31</v>
       </c>
-      <c r="E17" s="1">
-        <v>14</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>1</v>
       </c>
@@ -1212,8 +1234,12 @@
         <v>250</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1">
+        <v>31</v>
+      </c>
+      <c r="K17" s="1">
+        <v>14</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1235,11 +1261,9 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2">
-        <v>15</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="1">
         <v>3</v>
       </c>
@@ -1250,8 +1274,12 @@
         <v>750</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1">
+        <v>31</v>
+      </c>
+      <c r="K18" s="2">
+        <v>15</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1272,12 +1300,10 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="2">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2">
-        <v>16</v>
-      </c>
+      <c r="D19" s="1">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2">
         <v>6</v>
       </c>
@@ -1288,8 +1314,12 @@
         <v>1500</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="2">
+        <v>31</v>
+      </c>
+      <c r="K19" s="2">
+        <v>16</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1310,12 +1340,10 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1">
-        <v>17</v>
-      </c>
+      <c r="D20" s="1">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="2">
         <v>10</v>
       </c>
@@ -1326,8 +1354,12 @@
         <v>2500</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="2">
+        <v>31</v>
+      </c>
+      <c r="K20" s="1">
+        <v>17</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1348,8 +1380,8 @@
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="2">
-        <v>31</v>
+      <c r="D21" s="1">
+        <v>35</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2">
@@ -1362,7 +1394,9 @@
         <v>5000</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="2">
+        <v>31</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1375,192 +1409,202 @@
       <c r="T21" s="3"/>
     </row>
     <row customHeight="true" ht="23" r="22">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" s="6" t="str">
         <v>每日击败1只炫彩蜘蛛（{0}/{1}）</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
         <v>41</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4"/>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>250</v>
+      </c>
+      <c r="H22" s="6">
+        <v>250</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="6">
+        <v>41</v>
+      </c>
+      <c r="K22" s="4">
         <v>19</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>250</v>
-      </c>
-      <c r="H22" s="4">
-        <v>250</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="23">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="6" t="str">
         <v>每日击败3只炫彩蜘蛛（{0}/{1}）</v>
       </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>42</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6">
+        <v>750</v>
+      </c>
+      <c r="H23" s="6">
+        <v>750</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="6">
         <v>41</v>
       </c>
-      <c r="E23" s="5">
+      <c r="K23" s="4">
         <v>20</v>
       </c>
-      <c r="F23" s="4">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4">
-        <v>750</v>
-      </c>
-      <c r="H23" s="4">
-        <v>750</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="24">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="6" t="str">
         <v>每日击败6只炫彩蜘蛛（{0}/{1}）</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>43</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="4">
+        <v>6</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1500</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
         <v>41</v>
       </c>
-      <c r="E24" s="4">
+      <c r="K24" s="6">
         <v>21</v>
       </c>
-      <c r="F24" s="5">
-        <v>6</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1500</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1500</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="6" t="str">
         <v>每日击败10只炫彩蜘蛛（{0}/{1}）</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2500</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2500</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
         <v>41</v>
       </c>
-      <c r="E25" s="4">
+      <c r="K25" s="6">
         <v>22</v>
       </c>
-      <c r="F25" s="5">
-        <v>10</v>
-      </c>
-      <c r="G25" s="5">
-        <v>2500</v>
-      </c>
-      <c r="H25" s="5">
-        <v>2500</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="6" t="str">
         <v>每日击败20只炫彩蜘蛛（{0}/{1}）</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
         <v>41</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5">
-        <v>20</v>
-      </c>
-      <c r="G26" s="5">
-        <v>5000</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="27">
       <c r="A27" s="2">
@@ -1575,9 +1619,7 @@
       <c r="D27" s="1">
         <v>51</v>
       </c>
-      <c r="E27" s="2">
-        <v>24</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="1">
         <v>1</v>
       </c>
@@ -1588,8 +1630,12 @@
         <v>250</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="1">
+        <v>51</v>
+      </c>
+      <c r="K27" s="2">
+        <v>24</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1611,11 +1657,9 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>51</v>
-      </c>
-      <c r="E28" s="1">
-        <v>25</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1">
         <v>3</v>
       </c>
@@ -1626,8 +1670,12 @@
         <v>750</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="J28" s="1">
+        <v>51</v>
+      </c>
+      <c r="K28" s="1">
+        <v>25</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1649,11 +1697,9 @@
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>51</v>
-      </c>
-      <c r="E29" s="1">
-        <v>26</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="2">
         <v>6</v>
       </c>
@@ -1664,8 +1710,12 @@
         <v>1500</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="1">
+        <v>51</v>
+      </c>
+      <c r="K29" s="1">
+        <v>26</v>
+      </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1687,11 +1737,9 @@
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>51</v>
-      </c>
-      <c r="E30" s="2">
-        <v>27</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2">
         <v>10</v>
       </c>
@@ -1702,8 +1750,12 @@
         <v>2500</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="1">
+        <v>51</v>
+      </c>
+      <c r="K30" s="2">
+        <v>27</v>
+      </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1725,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2">
@@ -1738,8 +1790,10 @@
         <v>5000</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="1">
+        <v>51</v>
+      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1751,192 +1805,202 @@
       <c r="T31" s="3"/>
     </row>
     <row customHeight="true" ht="23" r="32">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="4" t="str">
+      <c r="B32" s="6" t="str">
         <v>每日击败1只丧尸（{0}/{1}）</v>
       </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
         <v>61</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>250</v>
+      </c>
+      <c r="H32" s="6">
+        <v>250</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="6">
+        <v>61</v>
+      </c>
+      <c r="K32" s="6">
         <v>29</v>
       </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4">
-        <v>250</v>
-      </c>
-      <c r="H32" s="4">
-        <v>250</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="6">
         <v>29</v>
       </c>
-      <c r="B33" s="4" t="str">
+      <c r="B33" s="6" t="str">
         <v>每日击败3只丧尸（{0}/{1}）</v>
       </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>62</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
+        <v>3</v>
+      </c>
+      <c r="G33" s="6">
+        <v>750</v>
+      </c>
+      <c r="H33" s="6">
+        <v>750</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="6">
         <v>61</v>
       </c>
-      <c r="E33" s="4">
+      <c r="K33" s="6">
         <v>30</v>
       </c>
-      <c r="F33" s="4">
-        <v>3</v>
-      </c>
-      <c r="G33" s="4">
-        <v>750</v>
-      </c>
-      <c r="H33" s="4">
-        <v>750</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="34">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="4" t="str">
+      <c r="B34" s="6" t="str">
         <v>每日击败6只丧尸（{0}/{1}）</v>
       </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>63</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4">
+        <v>6</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1500</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="6">
         <v>61</v>
       </c>
-      <c r="E34" s="5">
+      <c r="K34" s="4">
         <v>31</v>
       </c>
-      <c r="F34" s="5">
-        <v>6</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1500</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1500</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="35">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="4" t="str">
+      <c r="B35" s="6" t="str">
         <v>每日击败10只丧尸（{0}/{1}）</v>
       </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>64</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4">
+        <v>10</v>
+      </c>
+      <c r="G35" s="4">
+        <v>2500</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2500</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="6">
         <v>61</v>
       </c>
-      <c r="E35" s="5">
+      <c r="K35" s="4">
         <v>32</v>
       </c>
-      <c r="F35" s="5">
-        <v>10</v>
-      </c>
-      <c r="G35" s="5">
-        <v>2500</v>
-      </c>
-      <c r="H35" s="5">
-        <v>2500</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="5"/>
     </row>
     <row customHeight="true" ht="23" r="36">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="4" t="str">
+      <c r="B36" s="6" t="str">
         <v>每日击败20只丧尸（{0}/{1}）</v>
       </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>65</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="4">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="6">
         <v>61</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5">
-        <v>20</v>
-      </c>
-      <c r="G36" s="5">
-        <v>5000</v>
-      </c>
-      <c r="H36" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="37">
       <c r="A37" s="2">
@@ -1951,9 +2015,7 @@
       <c r="D37" s="1">
         <v>71</v>
       </c>
-      <c r="E37" s="1">
-        <v>34</v>
-      </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="1">
         <v>1</v>
       </c>
@@ -1964,8 +2026,12 @@
         <v>250</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="J37" s="1">
+        <v>71</v>
+      </c>
+      <c r="K37" s="1">
+        <v>34</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -1987,11 +2053,9 @@
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>71</v>
-      </c>
-      <c r="E38" s="2">
-        <v>35</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="1">
         <v>3</v>
       </c>
@@ -2002,8 +2066,12 @@
         <v>750</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="J38" s="1">
+        <v>71</v>
+      </c>
+      <c r="K38" s="2">
+        <v>35</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -2025,11 +2093,9 @@
         <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>71</v>
-      </c>
-      <c r="E39" s="2">
-        <v>36</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2">
         <v>6</v>
       </c>
@@ -2040,8 +2106,12 @@
         <v>1500</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="J39" s="1">
+        <v>71</v>
+      </c>
+      <c r="K39" s="2">
+        <v>36</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -2063,11 +2133,9 @@
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>71</v>
-      </c>
-      <c r="E40" s="1">
-        <v>37</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="2">
         <v>10</v>
       </c>
@@ -2078,8 +2146,12 @@
         <v>2500</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="J40" s="1">
+        <v>71</v>
+      </c>
+      <c r="K40" s="1">
+        <v>37</v>
+      </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -2101,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="2">
@@ -2114,7 +2186,9 @@
         <v>5000</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="1">
+        <v>71</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2127,192 +2201,202 @@
       <c r="T41" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="42">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="4" t="str">
+      <c r="B42" s="6" t="str">
         <v>每日击败1名玩家（{0}/{1}）</v>
       </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
         <v>81</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6">
+        <v>250</v>
+      </c>
+      <c r="H42" s="6">
+        <v>250</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="6">
+        <v>81</v>
+      </c>
+      <c r="K42" s="6">
         <v>39</v>
       </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4">
-        <v>250</v>
-      </c>
-      <c r="H42" s="4">
-        <v>250</v>
-      </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="43">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="4" t="str">
+      <c r="B43" s="6" t="str">
         <v>每日击败3名玩家（{0}/{1}）</v>
       </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>82</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6">
+        <v>3</v>
+      </c>
+      <c r="G43" s="6">
+        <v>750</v>
+      </c>
+      <c r="H43" s="6">
+        <v>750</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="6">
         <v>81</v>
       </c>
-      <c r="E43" s="4">
+      <c r="K43" s="6">
         <v>40</v>
       </c>
-      <c r="F43" s="4">
-        <v>3</v>
-      </c>
-      <c r="G43" s="4">
-        <v>750</v>
-      </c>
-      <c r="H43" s="4">
-        <v>750</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="44">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="4" t="str">
+      <c r="B44" s="6" t="str">
         <v>每日击败6名玩家（{0}/{1}）</v>
       </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>83</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="4">
+        <v>6</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1500</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="6">
         <v>81</v>
       </c>
-      <c r="E44" s="4">
+      <c r="K44" s="6">
         <v>41</v>
       </c>
-      <c r="F44" s="5">
-        <v>6</v>
-      </c>
-      <c r="G44" s="5">
-        <v>1500</v>
-      </c>
-      <c r="H44" s="5">
-        <v>1500</v>
-      </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="6">
         <v>41</v>
       </c>
-      <c r="B45" s="4" t="str">
+      <c r="B45" s="6" t="str">
         <v>每日击败10名玩家（{0}/{1}）</v>
       </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>84</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="4">
+        <v>10</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2500</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2500</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="6">
         <v>81</v>
       </c>
-      <c r="E45" s="4">
+      <c r="K45" s="6">
         <v>42</v>
       </c>
-      <c r="F45" s="5">
-        <v>10</v>
-      </c>
-      <c r="G45" s="5">
-        <v>2500</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2500</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="46">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="4" t="str">
+      <c r="B46" s="6" t="str">
         <v>每日击败20名玩家（{0}/{1}）</v>
       </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>85</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="4">
+        <v>20</v>
+      </c>
+      <c r="G46" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H46" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="6">
         <v>81</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5">
-        <v>20</v>
-      </c>
-      <c r="G46" s="5">
-        <v>5000</v>
-      </c>
-      <c r="H46" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="47">
       <c r="A47" s="2">
@@ -2327,9 +2411,7 @@
       <c r="D47" s="1">
         <v>91</v>
       </c>
-      <c r="E47" s="1">
-        <v>44</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1">
         <v>1</v>
       </c>
@@ -2340,8 +2422,12 @@
         <v>250</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="J47" s="1">
+        <v>91</v>
+      </c>
+      <c r="K47" s="1">
+        <v>44</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -2363,11 +2449,9 @@
         <v>1</v>
       </c>
       <c r="D48" s="1">
-        <v>91</v>
-      </c>
-      <c r="E48" s="2">
-        <v>45</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="1">
         <v>3</v>
       </c>
@@ -2378,8 +2462,12 @@
         <v>750</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="J48" s="1">
+        <v>91</v>
+      </c>
+      <c r="K48" s="2">
+        <v>45</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -2401,11 +2489,9 @@
         <v>1</v>
       </c>
       <c r="D49" s="1">
-        <v>91</v>
-      </c>
-      <c r="E49" s="2">
-        <v>46</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2">
         <v>6</v>
       </c>
@@ -2416,8 +2502,12 @@
         <v>1500</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="J49" s="1">
+        <v>91</v>
+      </c>
+      <c r="K49" s="2">
+        <v>46</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -2439,11 +2529,9 @@
         <v>1</v>
       </c>
       <c r="D50" s="1">
-        <v>91</v>
-      </c>
-      <c r="E50" s="1">
-        <v>47</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="2">
         <v>10</v>
       </c>
@@ -2454,8 +2542,12 @@
         <v>2500</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="J50" s="1">
+        <v>91</v>
+      </c>
+      <c r="K50" s="1">
+        <v>47</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -2477,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2">
@@ -2490,7 +2582,9 @@
         <v>5000</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="1">
+        <v>91</v>
+      </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2503,192 +2597,202 @@
       <c r="T51" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="52">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="4" t="str">
+      <c r="B52" s="6" t="str">
         <v>每日捡到1个秘宝（{0}/{1}）</v>
       </c>
-      <c r="C52" s="4">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4">
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
         <v>101</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="6"/>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>250</v>
+      </c>
+      <c r="H52" s="6">
+        <v>250</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="6">
+        <v>101</v>
+      </c>
+      <c r="K52" s="6">
         <v>49</v>
       </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4">
-        <v>250</v>
-      </c>
-      <c r="H52" s="4">
-        <v>250</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="53">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="4" t="str">
+      <c r="B53" s="6" t="str">
         <v>每日捡到3个秘宝（{0}/{1}）</v>
       </c>
-      <c r="C53" s="4">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4">
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>102</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <v>3</v>
+      </c>
+      <c r="G53" s="6">
+        <v>750</v>
+      </c>
+      <c r="H53" s="6">
+        <v>750</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="6">
         <v>101</v>
       </c>
-      <c r="E53" s="4">
+      <c r="K53" s="6">
         <v>50</v>
       </c>
-      <c r="F53" s="4">
-        <v>3</v>
-      </c>
-      <c r="G53" s="4">
-        <v>750</v>
-      </c>
-      <c r="H53" s="4">
-        <v>750</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="54">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="4" t="str">
+      <c r="B54" s="6" t="str">
         <v>每日捡到6个秘宝（{0}/{1}）</v>
       </c>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
-      <c r="D54" s="4">
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6">
+        <v>103</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="4">
+        <v>6</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1500</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1500</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="6">
         <v>101</v>
       </c>
-      <c r="E54" s="4">
+      <c r="K54" s="6">
         <v>51</v>
       </c>
-      <c r="F54" s="5">
-        <v>6</v>
-      </c>
-      <c r="G54" s="5">
-        <v>1500</v>
-      </c>
-      <c r="H54" s="5">
-        <v>1500</v>
-      </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="55">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>51</v>
       </c>
-      <c r="B55" s="4" t="str">
+      <c r="B55" s="6" t="str">
         <v>每日捡到10个秘宝（{0}/{1}）</v>
       </c>
-      <c r="C55" s="5">
-        <v>1</v>
-      </c>
-      <c r="D55" s="4">
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6">
+        <v>104</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="4">
+        <v>10</v>
+      </c>
+      <c r="G55" s="4">
+        <v>2500</v>
+      </c>
+      <c r="H55" s="4">
+        <v>2500</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="6">
         <v>101</v>
       </c>
-      <c r="E55" s="4">
+      <c r="K55" s="6">
         <v>52</v>
       </c>
-      <c r="F55" s="5">
-        <v>10</v>
-      </c>
-      <c r="G55" s="5">
-        <v>2500</v>
-      </c>
-      <c r="H55" s="5">
-        <v>2500</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B56" s="4" t="str">
+      <c r="B56" s="6" t="str">
         <v>每日捡到20个秘宝（{0}/{1}）</v>
       </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4">
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
+        <v>105</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="4">
+        <v>20</v>
+      </c>
+      <c r="G56" s="4">
+        <v>5000</v>
+      </c>
+      <c r="H56" s="4">
+        <v>5000</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="6">
         <v>101</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="5">
-        <v>20</v>
-      </c>
-      <c r="G56" s="5">
-        <v>5000</v>
-      </c>
-      <c r="H56" s="5">
-        <v>5000</v>
-      </c>
-      <c r="I56" s="5"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="57">
       <c r="A57" s="2">
@@ -2703,9 +2807,7 @@
       <c r="D57" s="1">
         <v>111</v>
       </c>
-      <c r="E57" s="1">
-        <v>54</v>
-      </c>
+      <c r="E57" s="1"/>
       <c r="F57" s="1">
         <v>1</v>
       </c>
@@ -2716,8 +2818,12 @@
         <v>250</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="J57" s="1">
+        <v>111</v>
+      </c>
+      <c r="K57" s="1">
+        <v>54</v>
+      </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -2739,11 +2845,9 @@
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>111</v>
-      </c>
-      <c r="E58" s="2">
-        <v>55</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="1">
         <v>3</v>
       </c>
@@ -2754,8 +2858,12 @@
         <v>750</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="J58" s="1">
+        <v>111</v>
+      </c>
+      <c r="K58" s="2">
+        <v>55</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -2777,11 +2885,9 @@
         <v>1</v>
       </c>
       <c r="D59" s="1">
-        <v>111</v>
-      </c>
-      <c r="E59" s="1">
-        <v>56</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="2">
         <v>6</v>
       </c>
@@ -2792,8 +2898,12 @@
         <v>1500</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="J59" s="1">
+        <v>111</v>
+      </c>
+      <c r="K59" s="1">
+        <v>56</v>
+      </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -2815,11 +2925,9 @@
         <v>1</v>
       </c>
       <c r="D60" s="1">
-        <v>111</v>
-      </c>
-      <c r="E60" s="2">
-        <v>57</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2">
         <v>10</v>
       </c>
@@ -2830,8 +2938,12 @@
         <v>2500</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="J60" s="1">
+        <v>111</v>
+      </c>
+      <c r="K60" s="2">
+        <v>57</v>
+      </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -2853,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="1">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2">
@@ -2866,7 +2978,9 @@
         <v>5000</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="1">
+        <v>111</v>
+      </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -2879,154 +2993,162 @@
       <c r="T61" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="62">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="5" t="str">
+      <c r="B62" s="4" t="str">
         <v>每周登录2天（{0}/{1}）</v>
       </c>
-      <c r="C62" s="4">
-        <v>2</v>
-      </c>
-      <c r="D62" s="4">
+      <c r="C62" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" s="6">
         <v>201</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4"/>
+      <c r="F62" s="6">
+        <v>2</v>
+      </c>
+      <c r="G62" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="6">
+        <v>201</v>
+      </c>
+      <c r="K62" s="4">
         <v>59</v>
       </c>
-      <c r="F62" s="4">
-        <v>2</v>
-      </c>
-      <c r="G62" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H62" s="4">
-        <v>2000</v>
-      </c>
-      <c r="I62" s="5"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="63">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="5" t="str">
+      <c r="B63" s="4" t="str">
         <v>每周登录3天（{0}/{1}）</v>
       </c>
-      <c r="C63" s="4">
-        <v>2</v>
-      </c>
-      <c r="D63" s="4">
+      <c r="C63" s="6">
+        <v>2</v>
+      </c>
+      <c r="D63" s="6">
+        <v>202</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6">
+        <v>3</v>
+      </c>
+      <c r="G63" s="6">
+        <v>3000</v>
+      </c>
+      <c r="H63" s="6">
+        <v>3000</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="6">
         <v>201</v>
       </c>
-      <c r="E63" s="4">
+      <c r="K63" s="6">
         <v>60</v>
       </c>
-      <c r="F63" s="4">
-        <v>3</v>
-      </c>
-      <c r="G63" s="4">
-        <v>3000</v>
-      </c>
-      <c r="H63" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I63" s="5"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="64">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="5" t="str">
+      <c r="B64" s="4" t="str">
         <v>每周登录5天（{0}/{1}）</v>
       </c>
-      <c r="C64" s="4">
-        <v>2</v>
-      </c>
-      <c r="D64" s="4">
+      <c r="C64" s="6">
+        <v>2</v>
+      </c>
+      <c r="D64" s="6">
+        <v>203</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="6">
+        <v>5</v>
+      </c>
+      <c r="G64" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H64" s="6">
+        <v>5000</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="6">
         <v>201</v>
       </c>
-      <c r="E64" s="5">
+      <c r="K64" s="4">
         <v>61</v>
       </c>
-      <c r="F64" s="4">
-        <v>5</v>
-      </c>
-      <c r="G64" s="4">
-        <v>5000</v>
-      </c>
-      <c r="H64" s="4">
-        <v>5000</v>
-      </c>
-      <c r="I64" s="5"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="65">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>61</v>
       </c>
-      <c r="B65" s="5" t="str">
+      <c r="B65" s="4" t="str">
         <v>每周登录7天（{0}/{1}）</v>
       </c>
-      <c r="C65" s="4">
-        <v>2</v>
-      </c>
-      <c r="D65" s="4">
+      <c r="C65" s="6">
+        <v>2</v>
+      </c>
+      <c r="D65" s="6">
+        <v>204</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6">
+        <v>7</v>
+      </c>
+      <c r="G65" s="6">
+        <v>7000</v>
+      </c>
+      <c r="H65" s="6">
+        <v>7000</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="6">
         <v>201</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4">
-        <v>7</v>
-      </c>
-      <c r="G65" s="4">
-        <v>7000</v>
-      </c>
-      <c r="H65" s="4">
-        <v>7000</v>
-      </c>
-      <c r="I65" s="5"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="66">
       <c r="A66" s="2">
@@ -3041,9 +3163,7 @@
       <c r="D66" s="1">
         <v>211</v>
       </c>
-      <c r="E66" s="2">
-        <v>63</v>
-      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="1">
         <v>2</v>
       </c>
@@ -3054,8 +3174,12 @@
         <v>200</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="J66" s="1">
+        <v>211</v>
+      </c>
+      <c r="K66" s="2">
+        <v>63</v>
+      </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -3077,11 +3201,9 @@
         <v>2</v>
       </c>
       <c r="D67" s="1">
-        <v>211</v>
-      </c>
-      <c r="E67" s="1">
-        <v>64</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E67" s="1"/>
       <c r="F67" s="1">
         <v>3</v>
       </c>
@@ -3092,8 +3214,12 @@
         <v>300</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
+      <c r="J67" s="1">
+        <v>211</v>
+      </c>
+      <c r="K67" s="1">
+        <v>64</v>
+      </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -3115,11 +3241,9 @@
         <v>2</v>
       </c>
       <c r="D68" s="1">
-        <v>211</v>
-      </c>
-      <c r="E68" s="2">
-        <v>65</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="1">
         <v>5</v>
       </c>
@@ -3130,8 +3254,12 @@
         <v>500</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="J68" s="1">
+        <v>211</v>
+      </c>
+      <c r="K68" s="2">
+        <v>65</v>
+      </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -3153,7 +3281,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="1">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1">
@@ -3166,7 +3294,9 @@
         <v>700</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="1">
+        <v>211</v>
+      </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -3179,192 +3309,202 @@
       <c r="T69" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="70">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>66</v>
       </c>
-      <c r="B70" s="4" t="str">
+      <c r="B70" s="6" t="str">
         <v>每周击败50只美杜莎（{0}/{1}）</v>
       </c>
-      <c r="C70" s="4">
-        <v>2</v>
-      </c>
-      <c r="D70" s="4">
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" s="6">
         <v>221</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4"/>
+      <c r="F70" s="6">
+        <v>50</v>
+      </c>
+      <c r="G70" s="6">
+        <v>25000</v>
+      </c>
+      <c r="H70" s="6">
+        <v>25000</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="6">
+        <v>221</v>
+      </c>
+      <c r="K70" s="4">
         <v>67</v>
       </c>
-      <c r="F70" s="4">
-        <v>50</v>
-      </c>
-      <c r="G70" s="4">
-        <v>25000</v>
-      </c>
-      <c r="H70" s="4">
-        <v>25000</v>
-      </c>
-      <c r="I70" s="5"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="71">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>67</v>
       </c>
-      <c r="B71" s="4" t="str">
+      <c r="B71" s="6" t="str">
         <v>每周击败150只美杜莎（{0}/{1}）</v>
       </c>
-      <c r="C71" s="4">
-        <v>2</v>
-      </c>
-      <c r="D71" s="4">
+      <c r="C71" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6">
+        <v>222</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="6">
+        <v>150</v>
+      </c>
+      <c r="G71" s="6">
+        <v>75000</v>
+      </c>
+      <c r="H71" s="6">
+        <v>75000</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="6">
         <v>221</v>
       </c>
-      <c r="E71" s="5">
+      <c r="K71" s="4">
         <v>68</v>
       </c>
-      <c r="F71" s="4">
-        <v>150</v>
-      </c>
-      <c r="G71" s="4">
-        <v>75000</v>
-      </c>
-      <c r="H71" s="4">
-        <v>75000</v>
-      </c>
-      <c r="I71" s="5"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="72">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>68</v>
       </c>
-      <c r="B72" s="4" t="str">
+      <c r="B72" s="6" t="str">
         <v>每周击败300只美杜莎（{0}/{1}）</v>
       </c>
-      <c r="C72" s="5">
-        <v>2</v>
-      </c>
-      <c r="D72" s="4">
+      <c r="C72" s="4">
+        <v>2</v>
+      </c>
+      <c r="D72" s="6">
+        <v>223</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4">
+        <v>300</v>
+      </c>
+      <c r="G72" s="4">
+        <v>150000</v>
+      </c>
+      <c r="H72" s="4">
+        <v>150000</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="6">
         <v>221</v>
       </c>
-      <c r="E72" s="5">
+      <c r="K72" s="4">
         <v>69</v>
       </c>
-      <c r="F72" s="5">
-        <v>300</v>
-      </c>
-      <c r="G72" s="5">
-        <v>150000</v>
-      </c>
-      <c r="H72" s="5">
-        <v>150000</v>
-      </c>
-      <c r="I72" s="5"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="73">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>69</v>
       </c>
-      <c r="B73" s="4" t="str">
+      <c r="B73" s="6" t="str">
         <v>每周击败500只美杜莎（{0}/{1}）</v>
       </c>
-      <c r="C73" s="5">
-        <v>2</v>
-      </c>
-      <c r="D73" s="4">
+      <c r="C73" s="4">
+        <v>2</v>
+      </c>
+      <c r="D73" s="6">
+        <v>224</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4">
+        <v>500</v>
+      </c>
+      <c r="G73" s="4">
+        <v>250000</v>
+      </c>
+      <c r="H73" s="4">
+        <v>250000</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="6">
         <v>221</v>
       </c>
-      <c r="E73" s="5">
+      <c r="K73" s="4">
         <v>70</v>
       </c>
-      <c r="F73" s="5">
-        <v>500</v>
-      </c>
-      <c r="G73" s="5">
-        <v>250000</v>
-      </c>
-      <c r="H73" s="5">
-        <v>250000</v>
-      </c>
-      <c r="I73" s="5"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="74">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>70</v>
       </c>
-      <c r="B74" s="4" t="str">
+      <c r="B74" s="6" t="str">
         <v>每周击败1000只美杜莎（{0}/{1}）</v>
       </c>
-      <c r="C74" s="5">
-        <v>2</v>
-      </c>
-      <c r="D74" s="4">
+      <c r="C74" s="4">
+        <v>2</v>
+      </c>
+      <c r="D74" s="6">
+        <v>225</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G74" s="4">
+        <v>500000</v>
+      </c>
+      <c r="H74" s="4">
+        <v>500000</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="6">
         <v>221</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G74" s="5">
-        <v>500000</v>
-      </c>
-      <c r="H74" s="5">
-        <v>500000</v>
-      </c>
-      <c r="I74" s="5"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="75">
       <c r="A75" s="2">
@@ -3379,9 +3519,7 @@
       <c r="D75" s="1">
         <v>231</v>
       </c>
-      <c r="E75" s="2">
-        <v>72</v>
-      </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="1">
         <v>50</v>
       </c>
@@ -3392,8 +3530,12 @@
         <v>25000</v>
       </c>
       <c r="I75" s="2"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="J75" s="1">
+        <v>231</v>
+      </c>
+      <c r="K75" s="2">
+        <v>72</v>
+      </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -3415,11 +3557,9 @@
         <v>2</v>
       </c>
       <c r="D76" s="1">
-        <v>231</v>
-      </c>
-      <c r="E76" s="2">
-        <v>73</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="1">
         <v>150</v>
       </c>
@@ -3430,8 +3570,12 @@
         <v>75000</v>
       </c>
       <c r="I76" s="2"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="J76" s="1">
+        <v>231</v>
+      </c>
+      <c r="K76" s="2">
+        <v>73</v>
+      </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -3453,11 +3597,9 @@
         <v>2</v>
       </c>
       <c r="D77" s="1">
-        <v>231</v>
-      </c>
-      <c r="E77" s="2">
-        <v>74</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2">
         <v>300</v>
       </c>
@@ -3468,8 +3610,12 @@
         <v>150000</v>
       </c>
       <c r="I77" s="2"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="J77" s="1">
+        <v>231</v>
+      </c>
+      <c r="K77" s="2">
+        <v>74</v>
+      </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -3491,11 +3637,9 @@
         <v>2</v>
       </c>
       <c r="D78" s="1">
-        <v>231</v>
-      </c>
-      <c r="E78" s="2">
-        <v>75</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="E78" s="2"/>
       <c r="F78" s="2">
         <v>500</v>
       </c>
@@ -3506,8 +3650,12 @@
         <v>250000</v>
       </c>
       <c r="I78" s="2"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+      <c r="J78" s="1">
+        <v>231</v>
+      </c>
+      <c r="K78" s="2">
+        <v>75</v>
+      </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -3529,7 +3677,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="1">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="2">
@@ -3542,7 +3690,9 @@
         <v>500000</v>
       </c>
       <c r="I79" s="2"/>
-      <c r="J79" s="1"/>
+      <c r="J79" s="1">
+        <v>231</v>
+      </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -3555,192 +3705,202 @@
       <c r="T79" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="80">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="4" t="str">
+      <c r="B80" s="6" t="str">
         <v>每周击败50只炫彩蜘蛛（{0}/{1}）</v>
       </c>
-      <c r="C80" s="4">
-        <v>2</v>
-      </c>
-      <c r="D80" s="4">
+      <c r="C80" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" s="6">
         <v>241</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="4"/>
+      <c r="F80" s="6">
+        <v>50</v>
+      </c>
+      <c r="G80" s="6">
+        <v>25000</v>
+      </c>
+      <c r="H80" s="6">
+        <v>25000</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="6">
+        <v>241</v>
+      </c>
+      <c r="K80" s="4">
         <v>77</v>
       </c>
-      <c r="F80" s="4">
-        <v>50</v>
-      </c>
-      <c r="G80" s="4">
-        <v>25000</v>
-      </c>
-      <c r="H80" s="4">
-        <v>25000</v>
-      </c>
-      <c r="I80" s="5"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="81">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>77</v>
       </c>
-      <c r="B81" s="4" t="str">
+      <c r="B81" s="6" t="str">
         <v>每周击败150只炫彩蜘蛛（{0}/{1}）</v>
       </c>
-      <c r="C81" s="4">
-        <v>2</v>
-      </c>
-      <c r="D81" s="4">
+      <c r="C81" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" s="6">
         <v>241</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4"/>
+      <c r="F81" s="6">
+        <v>150</v>
+      </c>
+      <c r="G81" s="6">
+        <v>75000</v>
+      </c>
+      <c r="H81" s="6">
+        <v>75000</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="6">
+        <v>241</v>
+      </c>
+      <c r="K81" s="4">
         <v>78</v>
       </c>
-      <c r="F81" s="4">
-        <v>150</v>
-      </c>
-      <c r="G81" s="4">
-        <v>75000</v>
-      </c>
-      <c r="H81" s="4">
-        <v>75000</v>
-      </c>
-      <c r="I81" s="5"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="82">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>78</v>
       </c>
-      <c r="B82" s="4" t="str">
+      <c r="B82" s="6" t="str">
         <v>每周击败300只炫彩蜘蛛（{0}/{1}）</v>
       </c>
-      <c r="C82" s="5">
-        <v>2</v>
-      </c>
-      <c r="D82" s="4">
+      <c r="C82" s="4">
+        <v>2</v>
+      </c>
+      <c r="D82" s="6">
         <v>241</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4">
+        <v>300</v>
+      </c>
+      <c r="G82" s="4">
+        <v>150000</v>
+      </c>
+      <c r="H82" s="4">
+        <v>150000</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="6">
+        <v>241</v>
+      </c>
+      <c r="K82" s="4">
         <v>79</v>
       </c>
-      <c r="F82" s="5">
-        <v>300</v>
-      </c>
-      <c r="G82" s="5">
-        <v>150000</v>
-      </c>
-      <c r="H82" s="5">
-        <v>150000</v>
-      </c>
-      <c r="I82" s="5"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="83">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>79</v>
       </c>
-      <c r="B83" s="4" t="str">
+      <c r="B83" s="6" t="str">
         <v>每周击败500只炫彩蜘蛛（{0}/{1}）</v>
       </c>
-      <c r="C83" s="5">
-        <v>2</v>
-      </c>
-      <c r="D83" s="4">
+      <c r="C83" s="4">
+        <v>2</v>
+      </c>
+      <c r="D83" s="6">
         <v>241</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="4"/>
+      <c r="F83" s="4">
+        <v>500</v>
+      </c>
+      <c r="G83" s="4">
+        <v>250000</v>
+      </c>
+      <c r="H83" s="4">
+        <v>250000</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="6">
+        <v>241</v>
+      </c>
+      <c r="K83" s="4">
         <v>80</v>
       </c>
-      <c r="F83" s="5">
-        <v>500</v>
-      </c>
-      <c r="G83" s="5">
-        <v>250000</v>
-      </c>
-      <c r="H83" s="5">
-        <v>250000</v>
-      </c>
-      <c r="I83" s="5"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="84">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>80</v>
       </c>
-      <c r="B84" s="4" t="str">
+      <c r="B84" s="6" t="str">
         <v>每周击败1000只炫彩蜘蛛（{0}/{1}）</v>
       </c>
-      <c r="C84" s="5">
-        <v>2</v>
-      </c>
-      <c r="D84" s="4">
+      <c r="C84" s="4">
+        <v>2</v>
+      </c>
+      <c r="D84" s="6">
         <v>241</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5">
+      <c r="E84" s="4"/>
+      <c r="F84" s="4">
         <v>1000</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="4">
         <v>500000</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="4">
         <v>500000</v>
       </c>
-      <c r="I84" s="5"/>
-      <c r="J84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="6">
+        <v>241</v>
+      </c>
       <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="85">
       <c r="A85" s="2">
@@ -3755,9 +3915,7 @@
       <c r="D85" s="1">
         <v>251</v>
       </c>
-      <c r="E85" s="2">
-        <v>82</v>
-      </c>
+      <c r="E85" s="2"/>
       <c r="F85" s="1">
         <v>50</v>
       </c>
@@ -3768,8 +3926,12 @@
         <v>25000</v>
       </c>
       <c r="I85" s="2"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+      <c r="J85" s="1">
+        <v>251</v>
+      </c>
+      <c r="K85" s="2">
+        <v>82</v>
+      </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -3791,11 +3953,9 @@
         <v>2</v>
       </c>
       <c r="D86" s="1">
-        <v>251</v>
-      </c>
-      <c r="E86" s="2">
-        <v>83</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="1">
         <v>150</v>
       </c>
@@ -3806,8 +3966,12 @@
         <v>75000</v>
       </c>
       <c r="I86" s="2"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
+      <c r="J86" s="1">
+        <v>251</v>
+      </c>
+      <c r="K86" s="2">
+        <v>83</v>
+      </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -3829,11 +3993,9 @@
         <v>2</v>
       </c>
       <c r="D87" s="1">
-        <v>251</v>
-      </c>
-      <c r="E87" s="2">
-        <v>84</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E87" s="2"/>
       <c r="F87" s="2">
         <v>300</v>
       </c>
@@ -3844,8 +4006,12 @@
         <v>150000</v>
       </c>
       <c r="I87" s="2"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
+      <c r="J87" s="1">
+        <v>251</v>
+      </c>
+      <c r="K87" s="2">
+        <v>84</v>
+      </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -3867,11 +4033,9 @@
         <v>2</v>
       </c>
       <c r="D88" s="1">
-        <v>251</v>
-      </c>
-      <c r="E88" s="2">
-        <v>85</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="E88" s="2"/>
       <c r="F88" s="2">
         <v>500</v>
       </c>
@@ -3882,8 +4046,12 @@
         <v>250000</v>
       </c>
       <c r="I88" s="2"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
+      <c r="J88" s="1">
+        <v>251</v>
+      </c>
+      <c r="K88" s="2">
+        <v>85</v>
+      </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -3905,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="1">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2">
@@ -3918,8 +4086,10 @@
         <v>500000</v>
       </c>
       <c r="I89" s="2"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
+      <c r="J89" s="1">
+        <v>251</v>
+      </c>
+      <c r="K89" s="2"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -3931,192 +4101,202 @@
       <c r="T89" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="90">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>86</v>
       </c>
-      <c r="B90" s="4" t="str">
+      <c r="B90" s="6" t="str">
         <v>每周击败50只丧尸（{0}/{1}）</v>
       </c>
-      <c r="C90" s="4">
-        <v>2</v>
-      </c>
-      <c r="D90" s="4">
+      <c r="C90" s="6">
+        <v>2</v>
+      </c>
+      <c r="D90" s="6">
         <v>261</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4"/>
+      <c r="F90" s="6">
+        <v>50</v>
+      </c>
+      <c r="G90" s="6">
+        <v>25000</v>
+      </c>
+      <c r="H90" s="6">
+        <v>25000</v>
+      </c>
+      <c r="I90" s="4"/>
+      <c r="J90" s="6">
+        <v>261</v>
+      </c>
+      <c r="K90" s="4">
         <v>87</v>
       </c>
-      <c r="F90" s="4">
-        <v>50</v>
-      </c>
-      <c r="G90" s="4">
-        <v>25000</v>
-      </c>
-      <c r="H90" s="4">
-        <v>25000</v>
-      </c>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="6"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="91">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>87</v>
       </c>
-      <c r="B91" s="4" t="str">
+      <c r="B91" s="6" t="str">
         <v>每周击败150只丧尸（{0}/{1}）</v>
       </c>
-      <c r="C91" s="4">
-        <v>2</v>
-      </c>
-      <c r="D91" s="4">
+      <c r="C91" s="6">
+        <v>2</v>
+      </c>
+      <c r="D91" s="6">
+        <v>262</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="6">
+        <v>150</v>
+      </c>
+      <c r="G91" s="6">
+        <v>75000</v>
+      </c>
+      <c r="H91" s="6">
+        <v>75000</v>
+      </c>
+      <c r="I91" s="4"/>
+      <c r="J91" s="6">
         <v>261</v>
       </c>
-      <c r="E91" s="5">
+      <c r="K91" s="4">
         <v>88</v>
       </c>
-      <c r="F91" s="4">
-        <v>150</v>
-      </c>
-      <c r="G91" s="4">
-        <v>75000</v>
-      </c>
-      <c r="H91" s="4">
-        <v>75000</v>
-      </c>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="6"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="92">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>88</v>
       </c>
-      <c r="B92" s="4" t="str">
+      <c r="B92" s="6" t="str">
         <v>每周击败300只丧尸（{0}/{1}）</v>
       </c>
-      <c r="C92" s="5">
-        <v>2</v>
-      </c>
-      <c r="D92" s="4">
+      <c r="C92" s="4">
+        <v>2</v>
+      </c>
+      <c r="D92" s="6">
+        <v>263</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4">
+        <v>300</v>
+      </c>
+      <c r="G92" s="4">
+        <v>150000</v>
+      </c>
+      <c r="H92" s="4">
+        <v>150000</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="6">
         <v>261</v>
       </c>
-      <c r="E92" s="5">
+      <c r="K92" s="4">
         <v>89</v>
       </c>
-      <c r="F92" s="5">
-        <v>300</v>
-      </c>
-      <c r="G92" s="5">
-        <v>150000</v>
-      </c>
-      <c r="H92" s="5">
-        <v>150000</v>
-      </c>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="6"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="93">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>89</v>
       </c>
-      <c r="B93" s="4" t="str">
+      <c r="B93" s="6" t="str">
         <v>每周击败500只丧尸（{0}/{1}）</v>
       </c>
-      <c r="C93" s="5">
-        <v>2</v>
-      </c>
-      <c r="D93" s="4">
+      <c r="C93" s="4">
+        <v>2</v>
+      </c>
+      <c r="D93" s="6">
+        <v>264</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4">
+        <v>500</v>
+      </c>
+      <c r="G93" s="4">
+        <v>250000</v>
+      </c>
+      <c r="H93" s="4">
+        <v>250000</v>
+      </c>
+      <c r="I93" s="4"/>
+      <c r="J93" s="6">
         <v>261</v>
       </c>
-      <c r="E93" s="5">
+      <c r="K93" s="4">
         <v>90</v>
       </c>
-      <c r="F93" s="5">
-        <v>500</v>
-      </c>
-      <c r="G93" s="5">
-        <v>250000</v>
-      </c>
-      <c r="H93" s="5">
-        <v>250000</v>
-      </c>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="6"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="94">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>90</v>
       </c>
-      <c r="B94" s="4" t="str">
+      <c r="B94" s="6" t="str">
         <v>每周击败1000只丧尸（{0}/{1}）</v>
       </c>
-      <c r="C94" s="5">
-        <v>2</v>
-      </c>
-      <c r="D94" s="4">
+      <c r="C94" s="4">
+        <v>2</v>
+      </c>
+      <c r="D94" s="6">
+        <v>265</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G94" s="4">
+        <v>500000</v>
+      </c>
+      <c r="H94" s="4">
+        <v>500000</v>
+      </c>
+      <c r="I94" s="4"/>
+      <c r="J94" s="6">
         <v>261</v>
       </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G94" s="5">
-        <v>500000</v>
-      </c>
-      <c r="H94" s="5">
-        <v>500000</v>
-      </c>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="95">
       <c r="A95" s="2">
@@ -4131,9 +4311,7 @@
       <c r="D95" s="1">
         <v>271</v>
       </c>
-      <c r="E95" s="2">
-        <v>92</v>
-      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="1">
         <v>50</v>
       </c>
@@ -4144,8 +4322,12 @@
         <v>25000</v>
       </c>
       <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
+      <c r="J95" s="1">
+        <v>271</v>
+      </c>
+      <c r="K95" s="2">
+        <v>92</v>
+      </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -4167,11 +4349,9 @@
         <v>2</v>
       </c>
       <c r="D96" s="1">
-        <v>271</v>
-      </c>
-      <c r="E96" s="2">
-        <v>93</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="1">
         <v>150</v>
       </c>
@@ -4182,8 +4362,12 @@
         <v>75000</v>
       </c>
       <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
+      <c r="J96" s="1">
+        <v>271</v>
+      </c>
+      <c r="K96" s="2">
+        <v>93</v>
+      </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -4205,11 +4389,9 @@
         <v>2</v>
       </c>
       <c r="D97" s="1">
-        <v>271</v>
-      </c>
-      <c r="E97" s="2">
-        <v>94</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E97" s="2"/>
       <c r="F97" s="2">
         <v>300</v>
       </c>
@@ -4220,8 +4402,12 @@
         <v>150000</v>
       </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
+      <c r="J97" s="1">
+        <v>271</v>
+      </c>
+      <c r="K97" s="2">
+        <v>94</v>
+      </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -4243,11 +4429,9 @@
         <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>271</v>
-      </c>
-      <c r="E98" s="2">
-        <v>95</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="E98" s="2"/>
       <c r="F98" s="2">
         <v>500</v>
       </c>
@@ -4258,8 +4442,12 @@
         <v>250000</v>
       </c>
       <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="J98" s="1">
+        <v>271</v>
+      </c>
+      <c r="K98" s="2">
+        <v>95</v>
+      </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -4281,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="2">
@@ -4294,8 +4482,10 @@
         <v>500000</v>
       </c>
       <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
+      <c r="J99" s="1">
+        <v>271</v>
+      </c>
+      <c r="K99" s="1"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -4307,192 +4497,202 @@
       <c r="T99" s="3"/>
     </row>
     <row customHeight="true" ht="21" r="100">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>96</v>
       </c>
-      <c r="B100" s="4" t="str">
+      <c r="B100" s="6" t="str">
         <v>每周击败50名玩家（{0}/{1}）</v>
       </c>
-      <c r="C100" s="4">
-        <v>2</v>
-      </c>
-      <c r="D100" s="4">
+      <c r="C100" s="6">
+        <v>2</v>
+      </c>
+      <c r="D100" s="6">
         <v>281</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="4"/>
+      <c r="F100" s="6">
+        <v>50</v>
+      </c>
+      <c r="G100" s="6">
+        <v>25000</v>
+      </c>
+      <c r="H100" s="6">
+        <v>25000</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="6">
+        <v>281</v>
+      </c>
+      <c r="K100" s="4">
         <v>97</v>
       </c>
-      <c r="F100" s="4">
-        <v>50</v>
-      </c>
-      <c r="G100" s="4">
-        <v>25000</v>
-      </c>
-      <c r="H100" s="4">
-        <v>25000</v>
-      </c>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="6"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="101">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>97</v>
       </c>
-      <c r="B101" s="4" t="str">
+      <c r="B101" s="6" t="str">
         <v>每周击败150名玩家（{0}/{1}）</v>
       </c>
-      <c r="C101" s="4">
-        <v>2</v>
-      </c>
-      <c r="D101" s="4">
+      <c r="C101" s="6">
+        <v>2</v>
+      </c>
+      <c r="D101" s="6">
+        <v>282</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="6">
+        <v>150</v>
+      </c>
+      <c r="G101" s="6">
+        <v>75000</v>
+      </c>
+      <c r="H101" s="6">
+        <v>75000</v>
+      </c>
+      <c r="I101" s="4"/>
+      <c r="J101" s="6">
         <v>281</v>
       </c>
-      <c r="E101" s="5">
+      <c r="K101" s="4">
         <v>98</v>
       </c>
-      <c r="F101" s="4">
-        <v>150</v>
-      </c>
-      <c r="G101" s="4">
-        <v>75000</v>
-      </c>
-      <c r="H101" s="4">
-        <v>75000</v>
-      </c>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="6"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="102">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>98</v>
       </c>
-      <c r="B102" s="4" t="str">
+      <c r="B102" s="6" t="str">
         <v>每周击败300名玩家（{0}/{1}）</v>
       </c>
-      <c r="C102" s="5">
-        <v>2</v>
-      </c>
-      <c r="D102" s="4">
+      <c r="C102" s="4">
+        <v>2</v>
+      </c>
+      <c r="D102" s="6">
+        <v>283</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4">
+        <v>300</v>
+      </c>
+      <c r="G102" s="4">
+        <v>150000</v>
+      </c>
+      <c r="H102" s="4">
+        <v>150000</v>
+      </c>
+      <c r="I102" s="4"/>
+      <c r="J102" s="6">
         <v>281</v>
       </c>
-      <c r="E102" s="5">
+      <c r="K102" s="4">
         <v>99</v>
       </c>
-      <c r="F102" s="5">
-        <v>300</v>
-      </c>
-      <c r="G102" s="5">
-        <v>150000</v>
-      </c>
-      <c r="H102" s="5">
-        <v>150000</v>
-      </c>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="6"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="5"/>
     </row>
     <row customHeight="true" ht="21" r="103">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>99</v>
       </c>
-      <c r="B103" s="4" t="str">
+      <c r="B103" s="6" t="str">
         <v>每周击败500名玩家（{0}/{1}）</v>
       </c>
-      <c r="C103" s="5">
-        <v>2</v>
-      </c>
-      <c r="D103" s="4">
+      <c r="C103" s="4">
+        <v>2</v>
+      </c>
+      <c r="D103" s="6">
+        <v>284</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4">
+        <v>500</v>
+      </c>
+      <c r="G103" s="4">
+        <v>250000</v>
+      </c>
+      <c r="H103" s="4">
+        <v>250000</v>
+      </c>
+      <c r="I103" s="4"/>
+      <c r="J103" s="6">
         <v>281</v>
       </c>
-      <c r="E103" s="5">
+      <c r="K103" s="4">
         <v>100</v>
       </c>
-      <c r="F103" s="5">
-        <v>500</v>
-      </c>
-      <c r="G103" s="5">
-        <v>250000</v>
-      </c>
-      <c r="H103" s="5">
-        <v>250000</v>
-      </c>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="6"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="5"/>
     </row>
     <row r="104">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>100</v>
       </c>
-      <c r="B104" s="4" t="str">
+      <c r="B104" s="6" t="str">
         <v>每周击败1000名玩家（{0}/{1}）</v>
       </c>
-      <c r="C104" s="5">
-        <v>2</v>
-      </c>
-      <c r="D104" s="4">
+      <c r="C104" s="4">
+        <v>2</v>
+      </c>
+      <c r="D104" s="6">
+        <v>285</v>
+      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G104" s="4">
+        <v>500000</v>
+      </c>
+      <c r="H104" s="4">
+        <v>500000</v>
+      </c>
+      <c r="I104" s="4"/>
+      <c r="J104" s="6">
         <v>281</v>
       </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G104" s="5">
-        <v>500000</v>
-      </c>
-      <c r="H104" s="5">
-        <v>500000</v>
-      </c>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="5"/>
     </row>
     <row r="105">
       <c r="A105" s="2">
@@ -4507,9 +4707,7 @@
       <c r="D105" s="1">
         <v>291</v>
       </c>
-      <c r="E105" s="2">
-        <v>102</v>
-      </c>
+      <c r="E105" s="2"/>
       <c r="F105" s="1">
         <v>10</v>
       </c>
@@ -4520,8 +4718,12 @@
         <v>2500</v>
       </c>
       <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="J105" s="1">
+        <v>291</v>
+      </c>
+      <c r="K105" s="2">
+        <v>102</v>
+      </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -4542,12 +4744,10 @@
       <c r="C106" s="2">
         <v>2</v>
       </c>
-      <c r="D106" s="1">
-        <v>291</v>
-      </c>
-      <c r="E106" s="2">
-        <v>103</v>
-      </c>
+      <c r="D106" s="2">
+        <v>292</v>
+      </c>
+      <c r="E106" s="2"/>
       <c r="F106" s="1">
         <v>30</v>
       </c>
@@ -4558,8 +4758,12 @@
         <v>7500</v>
       </c>
       <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
+      <c r="J106" s="1">
+        <v>291</v>
+      </c>
+      <c r="K106" s="2">
+        <v>103</v>
+      </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -4581,11 +4785,9 @@
         <v>2</v>
       </c>
       <c r="D107" s="1">
-        <v>291</v>
-      </c>
-      <c r="E107" s="2">
-        <v>104</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="E107" s="2"/>
       <c r="F107" s="2">
         <v>60</v>
       </c>
@@ -4596,8 +4798,12 @@
         <v>15000</v>
       </c>
       <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
+      <c r="J107" s="1">
+        <v>291</v>
+      </c>
+      <c r="K107" s="2">
+        <v>104</v>
+      </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -4618,12 +4824,10 @@
       <c r="C108" s="2">
         <v>2</v>
       </c>
-      <c r="D108" s="1">
-        <v>291</v>
-      </c>
-      <c r="E108" s="2">
-        <v>105</v>
-      </c>
+      <c r="D108" s="2">
+        <v>294</v>
+      </c>
+      <c r="E108" s="2"/>
       <c r="F108" s="2">
         <v>100</v>
       </c>
@@ -4634,8 +4838,12 @@
         <v>25000</v>
       </c>
       <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
+      <c r="J108" s="1">
+        <v>291</v>
+      </c>
+      <c r="K108" s="2">
+        <v>105</v>
+      </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -4657,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="D109" s="1">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="2">
@@ -4670,8 +4878,10 @@
         <v>50000</v>
       </c>
       <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
+      <c r="J109" s="1">
+        <v>291</v>
+      </c>
+      <c r="K109" s="1"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -4683,192 +4893,202 @@
       <c r="T109" s="3"/>
     </row>
     <row r="110">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>106</v>
       </c>
-      <c r="B110" s="4" t="str">
+      <c r="B110" s="6" t="str">
         <v>每周捡到10个秘宝（{0}/{1}）</v>
       </c>
-      <c r="C110" s="4">
-        <v>2</v>
-      </c>
-      <c r="D110" s="4">
+      <c r="C110" s="6">
+        <v>2</v>
+      </c>
+      <c r="D110" s="6">
         <v>301</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="4"/>
+      <c r="F110" s="6">
+        <v>10</v>
+      </c>
+      <c r="G110" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H110" s="6">
+        <v>2500</v>
+      </c>
+      <c r="I110" s="4"/>
+      <c r="J110" s="6">
+        <v>301</v>
+      </c>
+      <c r="K110" s="4">
         <v>107</v>
       </c>
-      <c r="F110" s="4">
-        <v>10</v>
-      </c>
-      <c r="G110" s="4">
-        <v>2500</v>
-      </c>
-      <c r="H110" s="4">
-        <v>2500</v>
-      </c>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="6"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="5"/>
     </row>
     <row r="111">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>107</v>
       </c>
-      <c r="B111" s="4" t="str">
+      <c r="B111" s="6" t="str">
         <v>每周捡到30个秘宝（{0}/{1}）</v>
       </c>
-      <c r="C111" s="4">
-        <v>2</v>
-      </c>
-      <c r="D111" s="4">
+      <c r="C111" s="6">
+        <v>2</v>
+      </c>
+      <c r="D111" s="6">
+        <v>302</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="6">
+        <v>30</v>
+      </c>
+      <c r="G111" s="6">
+        <v>7500</v>
+      </c>
+      <c r="H111" s="6">
+        <v>7500</v>
+      </c>
+      <c r="I111" s="4"/>
+      <c r="J111" s="6">
         <v>301</v>
       </c>
-      <c r="E111" s="5">
+      <c r="K111" s="4">
         <v>108</v>
       </c>
-      <c r="F111" s="4">
-        <v>30</v>
-      </c>
-      <c r="G111" s="4">
-        <v>7500</v>
-      </c>
-      <c r="H111" s="4">
-        <v>7500</v>
-      </c>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="6"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="5"/>
     </row>
     <row r="112">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>108</v>
       </c>
-      <c r="B112" s="4" t="str">
+      <c r="B112" s="6" t="str">
         <v>每周捡到60个秘宝（{0}/{1}）</v>
       </c>
-      <c r="C112" s="5">
-        <v>2</v>
-      </c>
-      <c r="D112" s="4">
+      <c r="C112" s="4">
+        <v>2</v>
+      </c>
+      <c r="D112" s="6">
+        <v>303</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4">
+        <v>60</v>
+      </c>
+      <c r="G112" s="4">
+        <v>15000</v>
+      </c>
+      <c r="H112" s="4">
+        <v>15000</v>
+      </c>
+      <c r="I112" s="4"/>
+      <c r="J112" s="6">
         <v>301</v>
       </c>
-      <c r="E112" s="5">
+      <c r="K112" s="4">
         <v>109</v>
       </c>
-      <c r="F112" s="5">
-        <v>60</v>
-      </c>
-      <c r="G112" s="5">
-        <v>15000</v>
-      </c>
-      <c r="H112" s="5">
-        <v>15000</v>
-      </c>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="5"/>
-      <c r="S112" s="5"/>
-      <c r="T112" s="6"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="5"/>
     </row>
     <row r="113">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>109</v>
       </c>
-      <c r="B113" s="4" t="str">
+      <c r="B113" s="6" t="str">
         <v>每周捡到100个秘宝（{0}/{1}）</v>
       </c>
-      <c r="C113" s="5">
-        <v>2</v>
-      </c>
-      <c r="D113" s="4">
+      <c r="C113" s="4">
+        <v>2</v>
+      </c>
+      <c r="D113" s="6">
+        <v>304</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4">
+        <v>100</v>
+      </c>
+      <c r="G113" s="4">
+        <v>25000</v>
+      </c>
+      <c r="H113" s="4">
+        <v>25000</v>
+      </c>
+      <c r="I113" s="4"/>
+      <c r="J113" s="6">
         <v>301</v>
       </c>
-      <c r="E113" s="5">
+      <c r="K113" s="4">
         <v>110</v>
       </c>
-      <c r="F113" s="5">
-        <v>100</v>
-      </c>
-      <c r="G113" s="5">
-        <v>25000</v>
-      </c>
-      <c r="H113" s="5">
-        <v>25000</v>
-      </c>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="6"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="5"/>
     </row>
     <row r="114">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>110</v>
       </c>
-      <c r="B114" s="4" t="str">
+      <c r="B114" s="6" t="str">
         <v>每周捡到200个秘宝（{0}/{1}）</v>
       </c>
-      <c r="C114" s="5">
-        <v>2</v>
-      </c>
-      <c r="D114" s="4">
+      <c r="C114" s="4">
+        <v>2</v>
+      </c>
+      <c r="D114" s="6">
+        <v>305</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="F114" s="4">
+        <v>200</v>
+      </c>
+      <c r="G114" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H114" s="4">
+        <v>50000</v>
+      </c>
+      <c r="I114" s="4"/>
+      <c r="J114" s="6">
         <v>301</v>
       </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="5">
-        <v>200</v>
-      </c>
-      <c r="G114" s="5">
-        <v>50000</v>
-      </c>
-      <c r="H114" s="5">
-        <v>50000</v>
-      </c>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="5"/>
     </row>
     <row r="115">
       <c r="A115" s="1">
@@ -4883,9 +5103,7 @@
       <c r="D115" s="1">
         <v>311</v>
       </c>
-      <c r="E115" s="2">
-        <v>112</v>
-      </c>
+      <c r="E115" s="2"/>
       <c r="F115" s="1">
         <v>10</v>
       </c>
@@ -4896,8 +5114,12 @@
         <v>2500</v>
       </c>
       <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
+      <c r="J115" s="1">
+        <v>311</v>
+      </c>
+      <c r="K115" s="2">
+        <v>112</v>
+      </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -4919,11 +5141,9 @@
         <v>2</v>
       </c>
       <c r="D116" s="1">
-        <v>311</v>
-      </c>
-      <c r="E116" s="1">
-        <v>113</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E116" s="1"/>
       <c r="F116" s="1">
         <v>30</v>
       </c>
@@ -4934,8 +5154,12 @@
         <v>7500</v>
       </c>
       <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
+      <c r="J116" s="1">
+        <v>311</v>
+      </c>
+      <c r="K116" s="1">
+        <v>113</v>
+      </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -4957,11 +5181,9 @@
         <v>2</v>
       </c>
       <c r="D117" s="1">
-        <v>311</v>
-      </c>
-      <c r="E117" s="2">
-        <v>114</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E117" s="2"/>
       <c r="F117" s="2">
         <v>60</v>
       </c>
@@ -4972,8 +5194,12 @@
         <v>15000</v>
       </c>
       <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
+      <c r="J117" s="1">
+        <v>311</v>
+      </c>
+      <c r="K117" s="2">
+        <v>114</v>
+      </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -4995,11 +5221,9 @@
         <v>2</v>
       </c>
       <c r="D118" s="1">
-        <v>311</v>
-      </c>
-      <c r="E118" s="1">
-        <v>115</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="E118" s="1"/>
       <c r="F118" s="2">
         <v>100</v>
       </c>
@@ -5010,8 +5234,12 @@
         <v>25000</v>
       </c>
       <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
+      <c r="J118" s="1">
+        <v>311</v>
+      </c>
+      <c r="K118" s="1">
+        <v>115</v>
+      </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -5033,7 +5261,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="2">
@@ -5046,8 +5274,10 @@
         <v>50000</v>
       </c>
       <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
+      <c r="J119" s="1">
+        <v>311</v>
+      </c>
+      <c r="K119" s="1"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
